--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Efna4-Epha5.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Efna4-Epha5.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -86,6 +86,9 @@
   </si>
   <si>
     <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Resolving-Mac</t>
   </si>
   <si>
     <t>Efna4</t>
@@ -449,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,10 +525,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>23</v>
@@ -537,60 +540,60 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.140802333333333</v>
+        <v>1.974568</v>
       </c>
       <c r="H2">
-        <v>3.422407</v>
+        <v>5.923704</v>
       </c>
       <c r="I2">
-        <v>0.4676913838998554</v>
+        <v>0.5990695552080697</v>
       </c>
       <c r="J2">
-        <v>0.4676913838998554</v>
+        <v>0.5990695552080698</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.01424366666666667</v>
+        <v>0.02440666666666666</v>
       </c>
       <c r="N2">
-        <v>0.042731</v>
+        <v>0.07321999999999999</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.9884709884709885</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0.9884709884709886</v>
       </c>
       <c r="Q2">
-        <v>0.01624920816855556</v>
+        <v>0.04819262298666666</v>
       </c>
       <c r="R2">
-        <v>0.146242873517</v>
+        <v>0.43373360688</v>
       </c>
       <c r="S2">
-        <v>0.4676913838998554</v>
+        <v>0.592162875399396</v>
       </c>
       <c r="T2">
-        <v>0.4676913838998554</v>
+        <v>0.5921628753993963</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" t="s">
         <v>24</v>
-      </c>
-      <c r="C3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D3" t="s">
-        <v>23</v>
       </c>
       <c r="E3">
         <v>3</v>
@@ -599,122 +602,122 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.020259</v>
+        <v>1.974568</v>
       </c>
       <c r="H3">
-        <v>3.060777</v>
+        <v>5.923704</v>
       </c>
       <c r="I3">
-        <v>0.4182725873745722</v>
+        <v>0.5990695552080697</v>
       </c>
       <c r="J3">
-        <v>0.4182725873745722</v>
+        <v>0.5990695552080698</v>
       </c>
       <c r="K3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L3">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>0.01424366666666667</v>
+        <v>0.0002846666666666667</v>
       </c>
       <c r="N3">
-        <v>0.042731</v>
+        <v>0.000854</v>
       </c>
       <c r="O3">
-        <v>1</v>
+        <v>0.01152901152901153</v>
       </c>
       <c r="P3">
-        <v>1</v>
+        <v>0.01152901152901153</v>
       </c>
       <c r="Q3">
-        <v>0.01453222910966667</v>
+        <v>0.0005620936906666667</v>
       </c>
       <c r="R3">
-        <v>0.130790061987</v>
+        <v>0.005058843216</v>
       </c>
       <c r="S3">
-        <v>0.4182725873745722</v>
+        <v>0.006906679808673646</v>
       </c>
       <c r="T3">
-        <v>0.4182725873745722</v>
+        <v>0.006906679808673647</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
         <v>23</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.06907100000000001</v>
+        <v>1.020259</v>
       </c>
       <c r="H4">
-        <v>0.207213</v>
+        <v>3.060777</v>
       </c>
       <c r="I4">
-        <v>0.02831683511985592</v>
+        <v>0.309539152527049</v>
       </c>
       <c r="J4">
-        <v>0.02831683511985592</v>
+        <v>0.309539152527049</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.01424366666666667</v>
+        <v>0.02440666666666666</v>
       </c>
       <c r="N4">
-        <v>0.042731</v>
+        <v>0.07321999999999999</v>
       </c>
       <c r="O4">
-        <v>1</v>
+        <v>0.9884709884709885</v>
       </c>
       <c r="P4">
-        <v>1</v>
+        <v>0.9884709884709886</v>
       </c>
       <c r="Q4">
-        <v>0.0009838243003333334</v>
+        <v>0.02490112132666666</v>
       </c>
       <c r="R4">
-        <v>0.008854418703</v>
+        <v>0.22411009194</v>
       </c>
       <c r="S4">
-        <v>0.02831683511985592</v>
+        <v>0.3059704720688842</v>
       </c>
       <c r="T4">
-        <v>0.02831683511985592</v>
+        <v>0.3059704720688842</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
         <v>24</v>
-      </c>
-      <c r="C5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" t="s">
-        <v>23</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -723,46 +726,418 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.209088</v>
+        <v>1.020259</v>
       </c>
       <c r="H5">
-        <v>0.627264</v>
+        <v>3.060777</v>
       </c>
       <c r="I5">
-        <v>0.08571919360571637</v>
+        <v>0.309539152527049</v>
       </c>
       <c r="J5">
-        <v>0.08571919360571637</v>
+        <v>0.309539152527049</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.01424366666666667</v>
+        <v>0.0002846666666666667</v>
       </c>
       <c r="N5">
-        <v>0.042731</v>
+        <v>0.000854</v>
       </c>
       <c r="O5">
-        <v>1</v>
+        <v>0.01152901152901153</v>
       </c>
       <c r="P5">
-        <v>1</v>
+        <v>0.01152901152901153</v>
       </c>
       <c r="Q5">
-        <v>0.002978179776</v>
+        <v>0.0002904337286666667</v>
       </c>
       <c r="R5">
-        <v>0.026803617984</v>
+        <v>0.002613903558</v>
       </c>
       <c r="S5">
-        <v>0.08571919360571637</v>
+        <v>0.003568680458164807</v>
       </c>
       <c r="T5">
-        <v>0.08571919360571637</v>
+        <v>0.003568680458164807</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G6">
+        <v>0.077601</v>
+      </c>
+      <c r="H6">
+        <v>0.232803</v>
+      </c>
+      <c r="I6">
+        <v>0.02354357842003994</v>
+      </c>
+      <c r="J6">
+        <v>0.02354357842003994</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>0.02440666666666666</v>
+      </c>
+      <c r="N6">
+        <v>0.07321999999999999</v>
+      </c>
+      <c r="O6">
+        <v>0.9884709884709885</v>
+      </c>
+      <c r="P6">
+        <v>0.9884709884709886</v>
+      </c>
+      <c r="Q6">
+        <v>0.00189398174</v>
+      </c>
+      <c r="R6">
+        <v>0.01704583566</v>
+      </c>
+      <c r="S6">
+        <v>0.02327214423300111</v>
+      </c>
+      <c r="T6">
+        <v>0.02327214423300112</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G7">
+        <v>0.077601</v>
+      </c>
+      <c r="H7">
+        <v>0.232803</v>
+      </c>
+      <c r="I7">
+        <v>0.02354357842003994</v>
+      </c>
+      <c r="J7">
+        <v>0.02354357842003994</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M7">
+        <v>0.0002846666666666667</v>
+      </c>
+      <c r="N7">
+        <v>0.000854</v>
+      </c>
+      <c r="O7">
+        <v>0.01152901152901153</v>
+      </c>
+      <c r="P7">
+        <v>0.01152901152901153</v>
+      </c>
+      <c r="Q7">
+        <v>2.2090418E-05</v>
+      </c>
+      <c r="R7">
+        <v>0.000198813762</v>
+      </c>
+      <c r="S7">
+        <v>0.0002714341870388275</v>
+      </c>
+      <c r="T7">
+        <v>0.0002714341870388276</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>0.1837383333333333</v>
+      </c>
+      <c r="H8">
+        <v>0.551215</v>
+      </c>
+      <c r="I8">
+        <v>0.05574487261247628</v>
+      </c>
+      <c r="J8">
+        <v>0.05574487261247628</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>0.02440666666666666</v>
+      </c>
+      <c r="N8">
+        <v>0.07321999999999999</v>
+      </c>
+      <c r="O8">
+        <v>0.9884709884709885</v>
+      </c>
+      <c r="P8">
+        <v>0.9884709884709886</v>
+      </c>
+      <c r="Q8">
+        <v>0.004484440255555555</v>
+      </c>
+      <c r="R8">
+        <v>0.0403599623</v>
+      </c>
+      <c r="S8">
+        <v>0.05510218933344376</v>
+      </c>
+      <c r="T8">
+        <v>0.05510218933344377</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>0.1837383333333333</v>
+      </c>
+      <c r="H9">
+        <v>0.551215</v>
+      </c>
+      <c r="I9">
+        <v>0.05574487261247628</v>
+      </c>
+      <c r="J9">
+        <v>0.05574487261247628</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M9">
+        <v>0.0002846666666666667</v>
+      </c>
+      <c r="N9">
+        <v>0.000854</v>
+      </c>
+      <c r="O9">
+        <v>0.01152901152901153</v>
+      </c>
+      <c r="P9">
+        <v>0.01152901152901153</v>
+      </c>
+      <c r="Q9">
+        <v>5.230417888888889E-05</v>
+      </c>
+      <c r="R9">
+        <v>0.00047073761</v>
+      </c>
+      <c r="S9">
+        <v>0.0006426832790325181</v>
+      </c>
+      <c r="T9">
+        <v>0.0006426832790325181</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G10">
+        <v>0.03989166666666667</v>
+      </c>
+      <c r="H10">
+        <v>0.119675</v>
+      </c>
+      <c r="I10">
+        <v>0.01210284123236505</v>
+      </c>
+      <c r="J10">
+        <v>0.01210284123236505</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>0.02440666666666666</v>
+      </c>
+      <c r="N10">
+        <v>0.07321999999999999</v>
+      </c>
+      <c r="O10">
+        <v>0.9884709884709885</v>
+      </c>
+      <c r="P10">
+        <v>0.9884709884709886</v>
+      </c>
+      <c r="Q10">
+        <v>0.000973622611111111</v>
+      </c>
+      <c r="R10">
+        <v>0.008762603499999999</v>
+      </c>
+      <c r="S10">
+        <v>0.01196330743626331</v>
+      </c>
+      <c r="T10">
+        <v>0.01196330743626331</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G11">
+        <v>0.03989166666666667</v>
+      </c>
+      <c r="H11">
+        <v>0.119675</v>
+      </c>
+      <c r="I11">
+        <v>0.01210284123236505</v>
+      </c>
+      <c r="J11">
+        <v>0.01210284123236505</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M11">
+        <v>0.0002846666666666667</v>
+      </c>
+      <c r="N11">
+        <v>0.000854</v>
+      </c>
+      <c r="O11">
+        <v>0.01152901152901153</v>
+      </c>
+      <c r="P11">
+        <v>0.01152901152901153</v>
+      </c>
+      <c r="Q11">
+        <v>1.135582777777778E-05</v>
+      </c>
+      <c r="R11">
+        <v>0.00010220245</v>
+      </c>
+      <c r="S11">
+        <v>0.0001395337961017327</v>
+      </c>
+      <c r="T11">
+        <v>0.0001395337961017327</v>
       </c>
     </row>
   </sheetData>
